--- a/data/test2.xlsx
+++ b/data/test2.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>

--- a/data/test2.xlsx
+++ b/data/test2.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -14,7 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+  <si>
+    <t>hola</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,7 +349,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="220" zoomScaleNormal="220">
+    <sheetView workbookViewId="0" zoomScale="220" zoomScaleNormal="220">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -385,12 +390,132 @@
     </row>
     <row r="4" spans="1:3"/>
     <row r="5" spans="1:3">
-      <c r="B5" s="1" t="n">
-        <v>18</v>
-      </c>
+      <c r="B5" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0.3246994692046835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>0.6142127126896678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0.8371664782625285</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>0.9694002659393304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0.9965844930066698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0.9157733266550575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0.7357239106731317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0.4759473930370737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0.164594590280734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>-0.1645945902807338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>-0.4759473930370735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>-0.7357239106731313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>-0.9157733266550573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>-0.9965844930066698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>-0.9694002659393305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>-0.8371664782625288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>-0.614212712689668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>-0.3246994692046837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>-2.449293598294706e-16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>